--- a/data/outputs/management_elsevier/29.xlsx
+++ b/data/outputs/management_elsevier/29.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS30"/>
+  <dimension ref="A1:BU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84923632202</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2649</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1136,6 +1152,12 @@
           <t>2-s2.0-84928966726</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1256</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1345,6 +1367,12 @@
           <t>2-s2.0-84931097455</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2593</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1563,6 +1591,12 @@
         <is>
           <t>2-s2.0-84936127664</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>3010</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1763,6 +1797,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +2018,12 @@
           <t>2-s2.0-84923165567</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>4209</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2192,6 +2238,12 @@
         <is>
           <t>2-s2.0-84957428701</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>4428</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2396,6 +2448,12 @@
           <t>2-s2.0-84937970167</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2637,6 +2695,12 @@
           <t>2-s2.0-84937967155</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3464</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2882,6 +2946,12 @@
           <t>2-s2.0-84937966072</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>4705</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3118,6 +3188,12 @@
         <is>
           <t>2-s2.0-84937966202</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>5401</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3343,6 +3419,12 @@
         <is>
           <t>2-s2.0-84937969612</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>2466</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3539,6 +3621,12 @@
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3779,6 +3867,12 @@
         <is>
           <t>2-s2.0-84937969119</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>7475</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -4009,6 +4103,12 @@
           <t>2-s2.0-84937973926</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>6569</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4231,6 +4331,12 @@
         <is>
           <t>2-s2.0-84921529936</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>5080</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -4439,6 +4545,12 @@
           <t>2-s2.0-84921502834</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3900</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4661,6 +4773,12 @@
         <is>
           <t>2-s2.0-84921887069</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4853,6 +4971,12 @@
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5068,6 +5192,12 @@
           <t>2-s2.0-84921503010</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>5385</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5279,6 +5409,12 @@
           <t>2-s2.0-84921858672</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3469</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5493,6 +5629,12 @@
         <is>
           <t>2-s2.0-84950306652</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>12294</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -5701,6 +5843,12 @@
           <t>2-s2.0-85027931536</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3104</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5916,6 +6064,12 @@
           <t>2-s2.0-84921529231</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>14646</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6130,6 +6284,12 @@
         <is>
           <t>2-s2.0-84921471883</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>3412</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -6337,6 +6497,12 @@
         <is>
           <t>2-s2.0-84921468172</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>3518</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -6537,6 +6703,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6748,6 +6920,12 @@
           <t>2-s2.0-84921504089</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1835</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6963,6 +7141,12 @@
           <t>2-s2.0-84921506295</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2724</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
